--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/17/word_level_predictions_17.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G6" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -757,7 +757,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -1178,624 +1178,624 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>propellers</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>still</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>cannot</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>takeoff,</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/17/word_level_predictions_17.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G6" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -757,7 +757,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -1178,624 +1178,624 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>propellers</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>12</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>still</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>cannot</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>16</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>takeoff,</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>17</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
